--- a/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63B03A4-B5FC-491E-8A45-AC6F0299E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC401C-0EA9-4946-811E-53E50A0A512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -199,6 +191,15 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2308,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2654,12 +2655,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2824,7 +2825,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2834,7 +2835,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3116,7 +3117,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3129,58 +3132,86 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="50">
+        <v>44950</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>10</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>14</v>
+      </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="50">
+        <v>44967</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>44986</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3196,7 +3227,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45017</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3212,7 +3245,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45047</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3228,7 +3263,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45078</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3244,7 +3281,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45108</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3260,7 +3299,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45139</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -3276,7 +3317,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45170</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3292,7 +3335,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45200</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3308,7 +3353,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>45231</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3324,7 +3371,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45261</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3340,7 +3389,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="40">
+        <v>45292</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3356,7 +3407,9 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>45323</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3372,7 +3425,9 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45352</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3388,7 +3443,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45383</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -3404,7 +3461,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45413</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -3420,7 +3479,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45444</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3436,7 +3497,9 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45474</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -3452,7 +3515,9 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>45505</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -3468,7 +3533,9 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40">
+        <v>45536</v>
+      </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
@@ -3484,7 +3551,9 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>45566</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -3500,7 +3569,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>45597</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3516,7 +3587,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45627</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3532,7 +3605,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45658</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -3548,7 +3623,9 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>45689</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3564,7 +3641,9 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45717</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3580,7 +3659,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45748</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -3596,7 +3677,9 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>45778</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -3612,7 +3695,9 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>45809</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -3628,7 +3713,9 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45839</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -3644,7 +3731,9 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="40">
+        <v>45870</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -3660,7 +3749,9 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>45901</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -3676,7 +3767,9 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="40">
+        <v>45931</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -3692,7 +3785,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>45962</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -3708,7 +3803,9 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>45992</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -3724,7 +3821,9 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>46023</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -3740,7 +3839,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>46054</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -3756,7 +3857,9 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>46082</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3772,7 +3875,9 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>46113</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -3788,7 +3893,9 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>46143</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -3804,7 +3911,9 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>46174</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -3820,7 +3929,9 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>46204</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -3836,7 +3947,9 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>46235</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -3852,7 +3965,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>46266</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -3868,7 +3983,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>46296</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -3884,7 +4001,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>46327</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -3900,7 +4019,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>46357</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -3916,7 +4037,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>46388</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -3932,7 +4055,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>46419</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -3948,7 +4073,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>46447</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -3964,7 +4091,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>46478</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -3980,7 +4109,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>46508</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -3996,7 +4127,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>46539</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4012,7 +4145,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>46569</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4028,7 +4163,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>46600</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4044,7 +4181,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>46631</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4060,7 +4199,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>46661</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4076,7 +4217,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>46692</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4092,7 +4235,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>46722</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4108,7 +4253,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>46753</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4124,7 +4271,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>46784</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4140,7 +4289,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>46813</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4156,7 +4307,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>46844</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4172,7 +4325,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>46874</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4188,7 +4343,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>46905</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4204,7 +4361,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>46935</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4220,7 +4379,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>46966</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4236,7 +4397,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>46997</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4252,7 +4415,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>47027</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4268,7 +4433,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>47058</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4284,7 +4451,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>47088</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4300,7 +4469,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>47119</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4316,7 +4487,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>47150</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4332,7 +4505,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>47178</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4348,7 +4523,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>47209</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4364,7 +4541,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>47239</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4380,7 +4559,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>47270</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4396,7 +4577,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>47300</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4412,7 +4595,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>47331</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4860,20 +5045,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC401C-0EA9-4946-811E-53E50A0A512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -198,14 +197,11 @@
   <si>
     <t>VL(1-0-0)</t>
   </si>
-  <si>
-    <t>SP</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -856,7 +852,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -904,7 +899,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +942,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1006,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1066,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1132,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1195,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1293,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1352,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1417,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1460,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1535,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1721,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1787,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1845,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1911,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1967,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2042,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2085,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2151,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2207,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,25 +2303,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2633,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2643,7 +2638,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2651,34 +2646,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2699,7 +2694,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2721,7 +2716,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2743,7 +2738,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2751,7 +2746,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2764,7 +2759,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2781,7 +2776,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2825,7 +2820,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2835,12 +2830,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14</v>
+        <v>15.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2862,7 +2857,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -2882,7 +2877,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -2902,7 +2897,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -2926,7 +2921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -2946,7 +2941,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>49</v>
@@ -2994,7 +2989,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44774</v>
       </c>
@@ -3020,7 +3015,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44805</v>
       </c>
@@ -3046,7 +3041,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44835</v>
       </c>
@@ -3066,7 +3061,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44866</v>
       </c>
@@ -3090,7 +3085,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44896</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>52</v>
       </c>
@@ -3134,7 +3129,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44927</v>
       </c>
@@ -3160,33 +3155,33 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>44958</v>
+      </c>
       <c r="B24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14</v>
-      </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="50">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>51</v>
@@ -3205,12 +3200,12 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="50">
-        <v>44967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3226,9 +3221,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3244,9 +3239,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3262,9 +3257,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3280,9 +3275,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3298,9 +3293,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3316,9 +3311,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3334,9 +3329,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3352,9 +3347,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3370,9 +3365,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3388,9 +3383,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3406,9 +3401,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3424,9 +3419,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3442,9 +3437,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3460,9 +3455,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3478,9 +3473,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3496,9 +3491,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3514,9 +3509,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3532,9 +3527,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3550,9 +3545,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3568,9 +3563,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3586,9 +3581,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3604,9 +3599,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3622,9 +3617,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3640,9 +3635,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3658,9 +3653,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3676,9 +3671,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3694,9 +3689,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3712,9 +3707,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3730,9 +3725,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3748,9 +3743,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3766,9 +3761,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3784,9 +3779,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3802,9 +3797,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3820,9 +3815,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3838,9 +3833,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3856,9 +3851,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3874,9 +3869,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3892,9 +3887,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46143</v>
+        <v>46174</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3910,9 +3905,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46174</v>
+        <v>46204</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -3928,9 +3923,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -3946,9 +3941,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46235</v>
+        <v>46266</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -3964,9 +3959,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -3982,9 +3977,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4000,9 +3995,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46327</v>
+        <v>46357</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4018,9 +4013,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46357</v>
+        <v>46388</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4036,9 +4031,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46388</v>
+        <v>46419</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4054,9 +4049,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46419</v>
+        <v>46447</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4072,9 +4067,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46447</v>
+        <v>46478</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4090,9 +4085,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46478</v>
+        <v>46508</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4108,9 +4103,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46508</v>
+        <v>46539</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4126,9 +4121,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46539</v>
+        <v>46569</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4144,9 +4139,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46569</v>
+        <v>46600</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4162,9 +4157,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46600</v>
+        <v>46631</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4180,9 +4175,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46631</v>
+        <v>46661</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4198,9 +4193,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46661</v>
+        <v>46692</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4216,9 +4211,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46692</v>
+        <v>46722</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4234,9 +4229,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46722</v>
+        <v>46753</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4252,9 +4247,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46753</v>
+        <v>46784</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4270,9 +4265,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46784</v>
+        <v>46813</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4288,9 +4283,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46813</v>
+        <v>46844</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4306,9 +4301,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46844</v>
+        <v>46874</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4324,9 +4319,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46874</v>
+        <v>46905</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4342,9 +4337,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46905</v>
+        <v>46935</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4360,9 +4355,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46935</v>
+        <v>46966</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4378,9 +4373,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46966</v>
+        <v>46997</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4396,9 +4391,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46997</v>
+        <v>47027</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4414,9 +4409,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>47027</v>
+        <v>47058</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4432,9 +4427,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47058</v>
+        <v>47088</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4450,9 +4445,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47088</v>
+        <v>47119</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4468,9 +4463,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47119</v>
+        <v>47150</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4486,9 +4481,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47150</v>
+        <v>47178</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4504,9 +4499,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47178</v>
+        <v>47209</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4522,9 +4517,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47209</v>
+        <v>47239</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4540,9 +4535,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47239</v>
+        <v>47270</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4558,9 +4553,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47270</v>
+        <v>47300</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4576,9 +4571,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47300</v>
+        <v>47331</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4594,10 +4589,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40">
-        <v>47331</v>
-      </c>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4612,7 +4605,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4628,7 +4621,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4644,7 +4637,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4660,7 +4653,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4676,7 +4669,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4692,7 +4685,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4708,7 +4701,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4724,7 +4717,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4740,7 +4733,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4756,7 +4749,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4772,7 +4765,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4788,7 +4781,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4804,7 +4797,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4820,7 +4813,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4836,7 +4829,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4852,7 +4845,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4868,7 +4861,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4884,7 +4877,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4900,7 +4893,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4916,7 +4909,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4932,7 +4925,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4948,7 +4941,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4964,7 +4957,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4980,7 +4973,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4996,7 +4989,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5012,7 +5005,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5028,7 +5021,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5044,7 +5037,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5060,37 +5053,21 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5107,10 +5084,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5133,28 +5110,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5167,7 +5144,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5196,7 +5173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5216,17 +5193,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5247,7 +5224,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5274,7 +5251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5300,7 +5277,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5326,7 +5303,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5352,7 +5329,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5378,7 +5355,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5404,7 +5381,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5430,7 +5407,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5456,7 +5433,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5476,7 +5453,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5496,7 +5473,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5516,7 +5493,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5537,7 +5514,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5558,7 +5535,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5579,7 +5556,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5600,7 +5577,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5621,7 +5598,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5642,7 +5619,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5663,7 +5640,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5684,7 +5661,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5705,7 +5682,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5726,7 +5703,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5747,7 +5724,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5768,7 +5745,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5789,7 +5766,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5810,7 +5787,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5831,7 +5808,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5852,7 +5829,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5873,7 +5850,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5894,7 +5871,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5915,7 +5892,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5936,7 +5913,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5945,7 +5922,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5954,7 +5931,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5963,7 +5940,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5972,7 +5949,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5981,7 +5958,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5990,7 +5967,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5999,7 +5976,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6008,7 +5985,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6017,7 +5994,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6026,7 +6003,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6035,7 +6012,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6044,7 +6021,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6053,7 +6030,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6062,7 +6039,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6071,7 +6048,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6080,7 +6057,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6089,7 +6066,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6098,7 +6075,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6107,7 +6084,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6116,7 +6093,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6125,7 +6102,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6134,7 +6111,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6143,7 +6120,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6152,7 +6129,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6161,7 +6138,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6170,7 +6147,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6179,7 +6156,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6188,7 +6165,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6197,7 +6174,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -899,7 +899,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +942,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,7 +1006,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,7 +1066,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1132,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1195,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1293,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1352,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1460,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1721,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1787,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1845,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1911,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1967,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2042,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2085,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2207,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2650,10 +2650,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
@@ -3204,10 +3204,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B26" s="20"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -3219,13 +3219,15 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="50">
+        <v>44999</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B27" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -3241,7 +3243,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3259,7 +3261,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3277,7 +3279,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3295,7 +3297,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3313,7 +3315,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3331,7 +3333,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3349,7 +3351,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3367,7 +3369,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3385,7 +3387,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3403,7 +3405,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3421,7 +3423,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3439,7 +3441,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3457,7 +3459,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3475,7 +3477,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3493,7 +3495,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3511,7 +3513,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3529,7 +3531,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3547,7 +3549,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3565,7 +3567,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3583,7 +3585,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3601,7 +3603,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3619,7 +3621,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3637,7 +3639,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3655,7 +3657,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3673,7 +3675,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3691,7 +3693,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3709,7 +3711,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3727,7 +3729,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3745,7 +3747,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3763,7 +3765,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3781,7 +3783,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3799,7 +3801,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3817,7 +3819,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3835,7 +3837,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3853,7 +3855,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3871,7 +3873,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3889,7 +3891,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3907,7 +3909,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -3925,7 +3927,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -3943,7 +3945,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -3961,7 +3963,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -3979,7 +3981,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -3997,7 +3999,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4015,7 +4017,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4033,7 +4035,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4051,7 +4053,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4069,7 +4071,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4087,7 +4089,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4105,7 +4107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4123,7 +4125,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4141,7 +4143,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4159,7 +4161,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4177,7 +4179,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4195,7 +4197,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4213,7 +4215,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4231,7 +4233,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4249,7 +4251,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4267,7 +4269,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4285,7 +4287,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4303,7 +4305,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4321,7 +4323,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4339,7 +4341,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4357,7 +4359,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4375,7 +4377,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4393,7 +4395,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4411,7 +4413,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4429,7 +4431,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4447,7 +4449,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4465,7 +4467,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4483,7 +4485,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4501,7 +4503,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4519,7 +4521,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4537,7 +4539,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4555,7 +4557,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4573,7 +4575,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4590,7 +4592,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>47331</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5054,20 +5058,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB9B2A-E22A-4B5B-8217-561AAD5F2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -197,11 +198,17 @@
   <si>
     <t>VL(1-0-0)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/14,17/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -433,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,7 +909,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +952,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,7 +1016,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,7 +1076,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1142,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1205,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1303,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1362,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1427,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1470,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1545,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1731,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1797,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1855,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1921,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1977,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2052,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2095,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2161,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2217,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,25 +2313,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2628,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2638,7 +2648,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2646,34 +2656,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2694,7 +2704,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2716,7 +2726,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2738,7 +2748,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2746,7 +2756,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2759,7 +2769,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2776,7 +2786,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2820,7 +2830,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2835,7 +2845,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2857,7 +2867,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -2877,7 +2887,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -2897,7 +2907,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -2941,7 +2951,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -2967,7 +2977,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>49</v>
@@ -2989,7 +2999,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44774</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44805</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44835</v>
       </c>
@@ -3061,7 +3071,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44866</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44896</v>
       </c>
@@ -3111,7 +3121,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>52</v>
       </c>
@@ -3129,7 +3139,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44927</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44958</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44986</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -3223,13 +3233,17 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>45017</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="64" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -3239,9 +3253,11 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>45047</v>
       </c>
@@ -3259,7 +3275,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45078</v>
       </c>
@@ -3277,7 +3293,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>45108</v>
       </c>
@@ -3295,7 +3311,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>45139</v>
       </c>
@@ -3313,7 +3329,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>45170</v>
       </c>
@@ -3331,7 +3347,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>45200</v>
       </c>
@@ -3349,7 +3365,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>45231</v>
       </c>
@@ -3367,7 +3383,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>45261</v>
       </c>
@@ -3385,7 +3401,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>45292</v>
       </c>
@@ -3403,7 +3419,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>45323</v>
       </c>
@@ -3421,7 +3437,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>45352</v>
       </c>
@@ -3439,7 +3455,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>45383</v>
       </c>
@@ -3457,7 +3473,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>45413</v>
       </c>
@@ -3475,7 +3491,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>45444</v>
       </c>
@@ -3493,7 +3509,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>45474</v>
       </c>
@@ -3511,7 +3527,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>45505</v>
       </c>
@@ -3529,7 +3545,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>45536</v>
       </c>
@@ -3547,7 +3563,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>45566</v>
       </c>
@@ -3565,7 +3581,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>45597</v>
       </c>
@@ -3583,7 +3599,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>45627</v>
       </c>
@@ -3601,7 +3617,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45658</v>
       </c>
@@ -3619,7 +3635,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45689</v>
       </c>
@@ -3637,7 +3653,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45717</v>
       </c>
@@ -3655,7 +3671,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45748</v>
       </c>
@@ -3673,7 +3689,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45778</v>
       </c>
@@ -3691,7 +3707,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>45809</v>
       </c>
@@ -3709,7 +3725,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45839</v>
       </c>
@@ -3727,7 +3743,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>45870</v>
       </c>
@@ -3745,7 +3761,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>45901</v>
       </c>
@@ -3763,7 +3779,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>45931</v>
       </c>
@@ -3781,7 +3797,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>45962</v>
       </c>
@@ -3799,7 +3815,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>45992</v>
       </c>
@@ -3817,7 +3833,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>46023</v>
       </c>
@@ -3835,7 +3851,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>46054</v>
       </c>
@@ -3853,7 +3869,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>46082</v>
       </c>
@@ -3871,7 +3887,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>46113</v>
       </c>
@@ -3889,7 +3905,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>46143</v>
       </c>
@@ -3907,7 +3923,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>46174</v>
       </c>
@@ -3925,7 +3941,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>46204</v>
       </c>
@@ -3943,7 +3959,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>46235</v>
       </c>
@@ -3961,7 +3977,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>46266</v>
       </c>
@@ -3979,7 +3995,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>46296</v>
       </c>
@@ -3997,7 +4013,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>46327</v>
       </c>
@@ -4015,7 +4031,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>46357</v>
       </c>
@@ -4033,7 +4049,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>46388</v>
       </c>
@@ -4051,7 +4067,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>46419</v>
       </c>
@@ -4069,7 +4085,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>46447</v>
       </c>
@@ -4087,7 +4103,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>46478</v>
       </c>
@@ -4105,7 +4121,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>46508</v>
       </c>
@@ -4123,7 +4139,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>46539</v>
       </c>
@@ -4141,7 +4157,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>46569</v>
       </c>
@@ -4159,7 +4175,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>46600</v>
       </c>
@@ -4177,7 +4193,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>46631</v>
       </c>
@@ -4195,7 +4211,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>46661</v>
       </c>
@@ -4213,7 +4229,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>46692</v>
       </c>
@@ -4231,7 +4247,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>46722</v>
       </c>
@@ -4249,7 +4265,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>46753</v>
       </c>
@@ -4267,7 +4283,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>46784</v>
       </c>
@@ -4285,7 +4301,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>46813</v>
       </c>
@@ -4303,7 +4319,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>46844</v>
       </c>
@@ -4321,7 +4337,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>46874</v>
       </c>
@@ -4339,7 +4355,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>46905</v>
       </c>
@@ -4357,7 +4373,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>46935</v>
       </c>
@@ -4375,7 +4391,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>46966</v>
       </c>
@@ -4393,7 +4409,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>46997</v>
       </c>
@@ -4411,7 +4427,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>47027</v>
       </c>
@@ -4429,7 +4445,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>47058</v>
       </c>
@@ -4447,7 +4463,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>47088</v>
       </c>
@@ -4465,7 +4481,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>47119</v>
       </c>
@@ -4483,7 +4499,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>47150</v>
       </c>
@@ -4501,7 +4517,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>47178</v>
       </c>
@@ -4519,7 +4535,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>47209</v>
       </c>
@@ -4537,7 +4553,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>47239</v>
       </c>
@@ -4555,7 +4571,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>47270</v>
       </c>
@@ -4573,7 +4589,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>47300</v>
       </c>
@@ -4591,7 +4607,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>47331</v>
       </c>
@@ -4609,7 +4625,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4625,7 +4641,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4641,7 +4657,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4657,7 +4673,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4673,7 +4689,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4689,7 +4705,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4705,7 +4721,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4721,7 +4737,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4737,7 +4753,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4753,7 +4769,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4769,7 +4785,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4785,7 +4801,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4801,7 +4817,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4817,7 +4833,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4833,7 +4849,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4849,7 +4865,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4865,7 +4881,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4881,7 +4897,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4897,7 +4913,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4913,7 +4929,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4929,7 +4945,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4945,7 +4961,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4961,7 +4977,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4977,7 +4993,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4993,7 +5009,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5009,7 +5025,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5025,7 +5041,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5041,7 +5057,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5057,7 +5073,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5073,7 +5089,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5104,10 +5120,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5130,28 +5146,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5164,7 +5180,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5193,7 +5209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5213,17 +5229,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5244,7 +5260,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5271,7 +5287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5297,7 +5313,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5323,7 +5339,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5349,7 +5365,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5375,7 +5391,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5427,7 +5443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5453,7 +5469,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5473,7 +5489,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5493,7 +5509,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5513,7 +5529,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5534,7 +5550,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5555,7 +5571,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5576,7 +5592,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5597,7 +5613,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5618,7 +5634,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5639,7 +5655,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5660,7 +5676,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5681,7 +5697,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5702,7 +5718,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5723,7 +5739,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5744,7 +5760,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5765,7 +5781,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5786,7 +5802,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5828,7 +5844,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5849,7 +5865,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5870,7 +5886,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5891,7 +5907,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5912,7 +5928,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5933,7 +5949,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5942,7 +5958,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5951,7 +5967,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5960,7 +5976,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5969,7 +5985,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5978,7 +5994,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5987,7 +6003,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5996,7 +6012,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6005,7 +6021,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6014,7 +6030,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6023,7 +6039,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6032,7 +6048,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6041,7 +6057,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6050,7 +6066,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6059,7 +6075,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6068,7 +6084,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6077,7 +6093,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6086,7 +6102,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6095,7 +6111,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6104,7 +6120,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6113,7 +6129,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6122,7 +6138,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6131,7 +6147,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6140,7 +6156,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6149,7 +6165,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6158,7 +6174,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6167,7 +6183,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6176,7 +6192,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6185,7 +6201,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6194,7 +6210,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB9B2A-E22A-4B5B-8217-561AAD5F2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC97C90-D19D-48BD-BDA1-5537B0ADA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -203,6 +214,9 @@
   </si>
   <si>
     <t>4/14,17/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -440,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,9 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2663,9 +2674,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A17" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="E9:I9"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,7 +2841,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2840,7 +2851,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.25</v>
+        <v>16.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3237,18 +3248,20 @@
       <c r="A27" s="40">
         <v>45017</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39">
         <v>2</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
@@ -5150,7 +5163,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="A13" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5240,6 +5253,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5261,6 +5277,10 @@
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>27</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
+++ b/REGULAR/TREASURY/PERIDO, BEVERLY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC97C90-D19D-48BD-BDA1-5537B0ADA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317E03B7-F70C-4B3A-B1CC-C28B74E5A684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,23 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +206,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/23,26/2023</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2302,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2674,9 +2669,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2841,7 +2836,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2851,7 +2846,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3275,13 +3270,15 @@
         <v>45047</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
@@ -3292,19 +3289,27 @@
       <c r="A29" s="40">
         <v>45078</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="39"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39">
+        <v>2</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
@@ -5279,7 +5284,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
